--- a/data/processed/overall.xlsx
+++ b/data/processed/overall.xlsx
@@ -19,7 +19,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>value</t>
+    <t>overall</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>29952</v>
+        <v>34700</v>
       </c>
       <c r="C2">
-        <v>94.3</v>
+        <v>150.3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>29983</v>
+        <v>34731</v>
       </c>
       <c r="C3">
-        <v>94.59999999999999</v>
+        <v>150.9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>30011</v>
+        <v>34759</v>
       </c>
       <c r="C4">
-        <v>94.5</v>
+        <v>151.4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>30042</v>
+        <v>34790</v>
       </c>
       <c r="C5">
-        <v>94.90000000000001</v>
+        <v>151.9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>30072</v>
+        <v>34820</v>
       </c>
       <c r="C6">
-        <v>95.8</v>
+        <v>152.2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>30103</v>
+        <v>34851</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>30133</v>
+        <v>34881</v>
       </c>
       <c r="C8">
-        <v>97.5</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>30164</v>
+        <v>34912</v>
       </c>
       <c r="C9">
-        <v>97.7</v>
+        <v>152.9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>30195</v>
+        <v>34943</v>
       </c>
       <c r="C10">
-        <v>97.90000000000001</v>
+        <v>153.2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>30225</v>
+        <v>34973</v>
       </c>
       <c r="C11">
-        <v>98.2</v>
+        <v>153.7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>30256</v>
+        <v>35004</v>
       </c>
       <c r="C12">
-        <v>98</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>30286</v>
+        <v>35034</v>
       </c>
       <c r="C13">
-        <v>97.59999999999999</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>30317</v>
+        <v>35065</v>
       </c>
       <c r="C14">
-        <v>97.8</v>
+        <v>154.4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>30348</v>
+        <v>35096</v>
       </c>
       <c r="C15">
-        <v>97.90000000000001</v>
+        <v>154.9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>30376</v>
+        <v>35125</v>
       </c>
       <c r="C16">
-        <v>97.90000000000001</v>
+        <v>155.7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>30407</v>
+        <v>35156</v>
       </c>
       <c r="C17">
-        <v>98.59999999999999</v>
+        <v>156.3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>30437</v>
+        <v>35186</v>
       </c>
       <c r="C18">
-        <v>99.2</v>
+        <v>156.6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>30468</v>
+        <v>35217</v>
       </c>
       <c r="C19">
-        <v>99.5</v>
+        <v>156.7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>30498</v>
+        <v>35247</v>
       </c>
       <c r="C20">
-        <v>99.90000000000001</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -609,10 +609,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>30529</v>
+        <v>35278</v>
       </c>
       <c r="C21">
-        <v>100.2</v>
+        <v>157.3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -620,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>30560</v>
+        <v>35309</v>
       </c>
       <c r="C22">
-        <v>100.7</v>
+        <v>157.8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -631,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>30590</v>
+        <v>35339</v>
       </c>
       <c r="C23">
-        <v>101</v>
+        <v>158.3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>30621</v>
+        <v>35370</v>
       </c>
       <c r="C24">
-        <v>101.2</v>
+        <v>158.6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -653,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>30651</v>
+        <v>35400</v>
       </c>
       <c r="C25">
-        <v>101.3</v>
+        <v>158.6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -664,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>30682</v>
+        <v>35431</v>
       </c>
       <c r="C26">
-        <v>101.9</v>
+        <v>159.1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -675,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>30713</v>
+        <v>35462</v>
       </c>
       <c r="C27">
-        <v>102.4</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -686,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>30742</v>
+        <v>35490</v>
       </c>
       <c r="C28">
-        <v>102.6</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -697,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>30773</v>
+        <v>35521</v>
       </c>
       <c r="C29">
-        <v>103.1</v>
+        <v>160.2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -708,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>30803</v>
+        <v>35551</v>
       </c>
       <c r="C30">
-        <v>103.4</v>
+        <v>160.1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -719,10 +719,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>30834</v>
+        <v>35582</v>
       </c>
       <c r="C31">
-        <v>103.7</v>
+        <v>160.3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -730,10 +730,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>30864</v>
+        <v>35612</v>
       </c>
       <c r="C32">
-        <v>104.1</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -741,10 +741,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>30895</v>
+        <v>35643</v>
       </c>
       <c r="C33">
-        <v>104.5</v>
+        <v>160.8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -752,10 +752,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>30926</v>
+        <v>35674</v>
       </c>
       <c r="C34">
-        <v>105</v>
+        <v>161.2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -763,10 +763,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>30956</v>
+        <v>35704</v>
       </c>
       <c r="C35">
-        <v>105.3</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -774,10 +774,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>30987</v>
+        <v>35735</v>
       </c>
       <c r="C36">
-        <v>105.3</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -785,10 +785,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>31017</v>
+        <v>35765</v>
       </c>
       <c r="C37">
-        <v>105.3</v>
+        <v>161.3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -796,10 +796,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>31048</v>
+        <v>35796</v>
       </c>
       <c r="C38">
-        <v>105.5</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -807,10 +807,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>31079</v>
+        <v>35827</v>
       </c>
       <c r="C39">
-        <v>106</v>
+        <v>161.9</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -818,10 +818,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>31107</v>
+        <v>35855</v>
       </c>
       <c r="C40">
-        <v>106.4</v>
+        <v>162.2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -829,10 +829,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>31138</v>
+        <v>35886</v>
       </c>
       <c r="C41">
-        <v>106.9</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -840,10 +840,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>31168</v>
+        <v>35916</v>
       </c>
       <c r="C42">
-        <v>107.3</v>
+        <v>162.8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -851,10 +851,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>31199</v>
+        <v>35947</v>
       </c>
       <c r="C43">
-        <v>107.6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -862,10 +862,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>31229</v>
+        <v>35977</v>
       </c>
       <c r="C44">
-        <v>107.8</v>
+        <v>163.2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -873,10 +873,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>31260</v>
+        <v>36008</v>
       </c>
       <c r="C45">
-        <v>108</v>
+        <v>163.4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -884,10 +884,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>31291</v>
+        <v>36039</v>
       </c>
       <c r="C46">
-        <v>108.3</v>
+        <v>163.6</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -895,10 +895,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>31321</v>
+        <v>36069</v>
       </c>
       <c r="C47">
-        <v>108.7</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -906,10 +906,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>31352</v>
+        <v>36100</v>
       </c>
       <c r="C48">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -917,10 +917,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>31382</v>
+        <v>36130</v>
       </c>
       <c r="C49">
-        <v>109.3</v>
+        <v>163.9</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -928,10 +928,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>31413</v>
+        <v>36161</v>
       </c>
       <c r="C50">
-        <v>109.6</v>
+        <v>164.3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -939,10 +939,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>31444</v>
+        <v>36192</v>
       </c>
       <c r="C51">
-        <v>109.3</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -950,10 +950,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>31472</v>
+        <v>36220</v>
       </c>
       <c r="C52">
-        <v>108.8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -961,10 +961,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>31503</v>
+        <v>36251</v>
       </c>
       <c r="C53">
-        <v>108.6</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -972,10 +972,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>31533</v>
+        <v>36281</v>
       </c>
       <c r="C54">
-        <v>108.9</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -983,10 +983,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>31564</v>
+        <v>36312</v>
       </c>
       <c r="C55">
-        <v>109.5</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -994,10 +994,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>31594</v>
+        <v>36342</v>
       </c>
       <c r="C56">
-        <v>109.5</v>
+        <v>166.7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1005,10 +1005,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>31625</v>
+        <v>36373</v>
       </c>
       <c r="C57">
-        <v>109.7</v>
+        <v>167.1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1016,10 +1016,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>31656</v>
+        <v>36404</v>
       </c>
       <c r="C58">
-        <v>110.2</v>
+        <v>167.9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1027,10 +1027,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>31686</v>
+        <v>36434</v>
       </c>
       <c r="C59">
-        <v>110.3</v>
+        <v>168.2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1038,10 +1038,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>31717</v>
+        <v>36465</v>
       </c>
       <c r="C60">
-        <v>110.4</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1049,10 +1049,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>31747</v>
+        <v>36495</v>
       </c>
       <c r="C61">
-        <v>110.5</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1060,10 +1060,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>31778</v>
+        <v>36526</v>
       </c>
       <c r="C62">
-        <v>111.2</v>
+        <v>168.8</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1071,10 +1071,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>31809</v>
+        <v>36557</v>
       </c>
       <c r="C63">
-        <v>111.6</v>
+        <v>169.8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1082,10 +1082,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>31837</v>
+        <v>36586</v>
       </c>
       <c r="C64">
-        <v>112.1</v>
+        <v>171.2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1093,10 +1093,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>31868</v>
+        <v>36617</v>
       </c>
       <c r="C65">
-        <v>112.7</v>
+        <v>171.3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1104,10 +1104,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>31898</v>
+        <v>36647</v>
       </c>
       <c r="C66">
-        <v>113.1</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1115,10 +1115,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>31929</v>
+        <v>36678</v>
       </c>
       <c r="C67">
-        <v>113.5</v>
+        <v>172.4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1126,10 +1126,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>31959</v>
+        <v>36708</v>
       </c>
       <c r="C68">
-        <v>113.8</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1137,10 +1137,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>31990</v>
+        <v>36739</v>
       </c>
       <c r="C69">
-        <v>114.4</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1148,10 +1148,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>32021</v>
+        <v>36770</v>
       </c>
       <c r="C70">
-        <v>115</v>
+        <v>173.7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1159,10 +1159,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>32051</v>
+        <v>36800</v>
       </c>
       <c r="C71">
-        <v>115.3</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1170,10 +1170,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>32082</v>
+        <v>36831</v>
       </c>
       <c r="C72">
-        <v>115.4</v>
+        <v>174.1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1181,10 +1181,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>32112</v>
+        <v>36861</v>
       </c>
       <c r="C73">
-        <v>115.4</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1192,10 +1192,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>32143</v>
+        <v>36892</v>
       </c>
       <c r="C74">
-        <v>115.7</v>
+        <v>175.1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1203,10 +1203,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>32174</v>
+        <v>36923</v>
       </c>
       <c r="C75">
-        <v>116</v>
+        <v>175.8</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1214,10 +1214,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>32203</v>
+        <v>36951</v>
       </c>
       <c r="C76">
-        <v>116.5</v>
+        <v>176.2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1225,10 +1225,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>32234</v>
+        <v>36982</v>
       </c>
       <c r="C77">
-        <v>117.1</v>
+        <v>176.9</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1236,10 +1236,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>32264</v>
+        <v>37012</v>
       </c>
       <c r="C78">
-        <v>117.5</v>
+        <v>177.7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1247,10 +1247,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>32295</v>
+        <v>37043</v>
       </c>
       <c r="C79">
-        <v>118</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1258,10 +1258,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>32325</v>
+        <v>37073</v>
       </c>
       <c r="C80">
-        <v>118.5</v>
+        <v>177.5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1269,10 +1269,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>32356</v>
+        <v>37104</v>
       </c>
       <c r="C81">
-        <v>119</v>
+        <v>177.5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1280,10 +1280,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>32387</v>
+        <v>37135</v>
       </c>
       <c r="C82">
-        <v>119.8</v>
+        <v>178.3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1291,10 +1291,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>32417</v>
+        <v>37165</v>
       </c>
       <c r="C83">
-        <v>120.2</v>
+        <v>177.7</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1302,10 +1302,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>32448</v>
+        <v>37196</v>
       </c>
       <c r="C84">
-        <v>120.3</v>
+        <v>177.4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1313,10 +1313,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>32478</v>
+        <v>37226</v>
       </c>
       <c r="C85">
-        <v>120.5</v>
+        <v>176.7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1324,10 +1324,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>32509</v>
+        <v>37257</v>
       </c>
       <c r="C86">
-        <v>121.1</v>
+        <v>177.1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1335,10 +1335,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>32540</v>
+        <v>37288</v>
       </c>
       <c r="C87">
-        <v>121.6</v>
+        <v>177.8</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1346,10 +1346,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>32568</v>
+        <v>37316</v>
       </c>
       <c r="C88">
-        <v>122.3</v>
+        <v>178.8</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,10 +1357,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>32599</v>
+        <v>37347</v>
       </c>
       <c r="C89">
-        <v>123.1</v>
+        <v>179.8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1368,10 +1368,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>32629</v>
+        <v>37377</v>
       </c>
       <c r="C90">
-        <v>123.8</v>
+        <v>179.8</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1379,10 +1379,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>32660</v>
+        <v>37408</v>
       </c>
       <c r="C91">
-        <v>124.1</v>
+        <v>179.9</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1390,10 +1390,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>32690</v>
+        <v>37438</v>
       </c>
       <c r="C92">
-        <v>124.4</v>
+        <v>180.1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1401,10 +1401,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>32721</v>
+        <v>37469</v>
       </c>
       <c r="C93">
-        <v>124.6</v>
+        <v>180.7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1412,10 +1412,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>32752</v>
+        <v>37500</v>
       </c>
       <c r="C94">
-        <v>125</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1423,10 +1423,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>32782</v>
+        <v>37530</v>
       </c>
       <c r="C95">
-        <v>125.6</v>
+        <v>181.3</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1434,10 +1434,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>32813</v>
+        <v>37561</v>
       </c>
       <c r="C96">
-        <v>125.9</v>
+        <v>181.3</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1445,10 +1445,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>32843</v>
+        <v>37591</v>
       </c>
       <c r="C97">
-        <v>126.1</v>
+        <v>180.9</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1456,10 +1456,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>32874</v>
+        <v>37622</v>
       </c>
       <c r="C98">
-        <v>127.4</v>
+        <v>181.7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1467,10 +1467,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>32905</v>
+        <v>37653</v>
       </c>
       <c r="C99">
-        <v>128</v>
+        <v>183.1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1478,10 +1478,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>32933</v>
+        <v>37681</v>
       </c>
       <c r="C100">
-        <v>128.7</v>
+        <v>184.2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1489,10 +1489,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>32964</v>
+        <v>37712</v>
       </c>
       <c r="C101">
-        <v>128.9</v>
+        <v>183.8</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>32994</v>
+        <v>37742</v>
       </c>
       <c r="C102">
-        <v>129.2</v>
+        <v>183.5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1511,10 +1511,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>33025</v>
+        <v>37773</v>
       </c>
       <c r="C103">
-        <v>129.9</v>
+        <v>183.7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1522,10 +1522,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>33055</v>
+        <v>37803</v>
       </c>
       <c r="C104">
-        <v>130.4</v>
+        <v>183.9</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1533,10 +1533,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>33086</v>
+        <v>37834</v>
       </c>
       <c r="C105">
-        <v>131.6</v>
+        <v>184.6</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1544,10 +1544,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>33117</v>
+        <v>37865</v>
       </c>
       <c r="C106">
-        <v>132.7</v>
+        <v>185.2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1555,10 +1555,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>33147</v>
+        <v>37895</v>
       </c>
       <c r="C107">
-        <v>133.5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1566,10 +1566,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>33178</v>
+        <v>37926</v>
       </c>
       <c r="C108">
-        <v>133.8</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1577,10 +1577,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>33208</v>
+        <v>37956</v>
       </c>
       <c r="C109">
-        <v>133.8</v>
+        <v>184.3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1588,10 +1588,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>33239</v>
+        <v>37987</v>
       </c>
       <c r="C110">
-        <v>134.6</v>
+        <v>185.2</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1599,10 +1599,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>33270</v>
+        <v>38018</v>
       </c>
       <c r="C111">
-        <v>134.8</v>
+        <v>186.2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1610,10 +1610,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>33298</v>
+        <v>38047</v>
       </c>
       <c r="C112">
-        <v>135</v>
+        <v>187.4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1621,10 +1621,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>33329</v>
+        <v>38078</v>
       </c>
       <c r="C113">
-        <v>135.2</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1632,10 +1632,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>33359</v>
+        <v>38108</v>
       </c>
       <c r="C114">
-        <v>135.6</v>
+        <v>189.1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1643,10 +1643,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>33390</v>
+        <v>38139</v>
       </c>
       <c r="C115">
-        <v>136</v>
+        <v>189.7</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1654,10 +1654,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>33420</v>
+        <v>38169</v>
       </c>
       <c r="C116">
-        <v>136.2</v>
+        <v>189.4</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1665,10 +1665,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>33451</v>
+        <v>38200</v>
       </c>
       <c r="C117">
-        <v>136.6</v>
+        <v>189.5</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1676,10 +1676,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>33482</v>
+        <v>38231</v>
       </c>
       <c r="C118">
-        <v>137.2</v>
+        <v>189.9</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1687,10 +1687,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>33512</v>
+        <v>38261</v>
       </c>
       <c r="C119">
-        <v>137.4</v>
+        <v>190.9</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1698,10 +1698,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>33543</v>
+        <v>38292</v>
       </c>
       <c r="C120">
-        <v>137.8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1709,10 +1709,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>33573</v>
+        <v>38322</v>
       </c>
       <c r="C121">
-        <v>137.9</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1720,10 +1720,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>33604</v>
+        <v>38353</v>
       </c>
       <c r="C122">
-        <v>138.1</v>
+        <v>190.7</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1731,10 +1731,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>33635</v>
+        <v>38384</v>
       </c>
       <c r="C123">
-        <v>138.6</v>
+        <v>191.8</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1742,10 +1742,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>33664</v>
+        <v>38412</v>
       </c>
       <c r="C124">
-        <v>139.3</v>
+        <v>193.3</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1753,10 +1753,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>33695</v>
+        <v>38443</v>
       </c>
       <c r="C125">
-        <v>139.5</v>
+        <v>194.6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1764,10 +1764,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>33725</v>
+        <v>38473</v>
       </c>
       <c r="C126">
-        <v>139.7</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1775,10 +1775,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>33756</v>
+        <v>38504</v>
       </c>
       <c r="C127">
-        <v>140.2</v>
+        <v>194.5</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1786,10 +1786,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>33786</v>
+        <v>38534</v>
       </c>
       <c r="C128">
-        <v>140.5</v>
+        <v>195.4</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1797,10 +1797,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>33817</v>
+        <v>38565</v>
       </c>
       <c r="C129">
-        <v>140.9</v>
+        <v>196.4</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1808,10 +1808,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>33848</v>
+        <v>38596</v>
       </c>
       <c r="C130">
-        <v>141.3</v>
+        <v>198.8</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1819,10 +1819,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>33878</v>
+        <v>38626</v>
       </c>
       <c r="C131">
-        <v>141.8</v>
+        <v>199.2</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1830,10 +1830,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>33909</v>
+        <v>38657</v>
       </c>
       <c r="C132">
-        <v>142</v>
+        <v>197.6</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1841,10 +1841,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>33939</v>
+        <v>38687</v>
       </c>
       <c r="C133">
-        <v>141.9</v>
+        <v>196.8</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1852,10 +1852,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>33970</v>
+        <v>38718</v>
       </c>
       <c r="C134">
-        <v>142.6</v>
+        <v>198.3</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1863,10 +1863,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>34001</v>
+        <v>38749</v>
       </c>
       <c r="C135">
-        <v>143.1</v>
+        <v>198.7</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1874,10 +1874,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>34029</v>
+        <v>38777</v>
       </c>
       <c r="C136">
-        <v>143.6</v>
+        <v>199.8</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1885,10 +1885,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>34060</v>
+        <v>38808</v>
       </c>
       <c r="C137">
-        <v>144</v>
+        <v>201.5</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1896,10 +1896,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>34090</v>
+        <v>38838</v>
       </c>
       <c r="C138">
-        <v>144.2</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1907,10 +1907,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>34121</v>
+        <v>38869</v>
       </c>
       <c r="C139">
-        <v>144.4</v>
+        <v>202.9</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1918,10 +1918,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>34151</v>
+        <v>38899</v>
       </c>
       <c r="C140">
-        <v>144.4</v>
+        <v>203.5</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1929,10 +1929,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>34182</v>
+        <v>38930</v>
       </c>
       <c r="C141">
-        <v>144.8</v>
+        <v>203.9</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1940,10 +1940,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>34213</v>
+        <v>38961</v>
       </c>
       <c r="C142">
-        <v>145.1</v>
+        <v>202.9</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1951,10 +1951,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>34243</v>
+        <v>38991</v>
       </c>
       <c r="C143">
-        <v>145.7</v>
+        <v>201.8</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1962,10 +1962,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>34274</v>
+        <v>39022</v>
       </c>
       <c r="C144">
-        <v>145.8</v>
+        <v>201.5</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1973,10 +1973,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>34304</v>
+        <v>39052</v>
       </c>
       <c r="C145">
-        <v>145.8</v>
+        <v>201.8</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1984,10 +1984,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>34335</v>
+        <v>39083</v>
       </c>
       <c r="C146">
-        <v>146.2</v>
+        <v>202.416</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1995,10 +1995,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>34366</v>
+        <v>39114</v>
       </c>
       <c r="C147">
-        <v>146.7</v>
+        <v>203.499</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2006,10 +2006,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>34394</v>
+        <v>39142</v>
       </c>
       <c r="C148">
-        <v>147.2</v>
+        <v>205.352</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2017,10 +2017,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>34425</v>
+        <v>39173</v>
       </c>
       <c r="C149">
-        <v>147.4</v>
+        <v>206.686</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2028,10 +2028,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>34455</v>
+        <v>39203</v>
       </c>
       <c r="C150">
-        <v>147.5</v>
+        <v>207.949</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2039,10 +2039,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>34486</v>
+        <v>39234</v>
       </c>
       <c r="C151">
-        <v>148</v>
+        <v>208.352</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2050,10 +2050,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>34516</v>
+        <v>39264</v>
       </c>
       <c r="C152">
-        <v>148.4</v>
+        <v>208.299</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2061,10 +2061,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>34547</v>
+        <v>39295</v>
       </c>
       <c r="C153">
-        <v>149</v>
+        <v>207.917</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2072,10 +2072,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>34578</v>
+        <v>39326</v>
       </c>
       <c r="C154">
-        <v>149.4</v>
+        <v>208.49</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2083,10 +2083,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>34608</v>
+        <v>39356</v>
       </c>
       <c r="C155">
-        <v>149.5</v>
+        <v>208.936</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2094,10 +2094,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>34639</v>
+        <v>39387</v>
       </c>
       <c r="C156">
-        <v>149.7</v>
+        <v>210.177</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2105,10 +2105,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>34669</v>
+        <v>39417</v>
       </c>
       <c r="C157">
-        <v>149.7</v>
+        <v>210.036</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2116,10 +2116,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>34700</v>
+        <v>39448</v>
       </c>
       <c r="C158">
-        <v>150.3</v>
+        <v>211.08</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2127,10 +2127,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>34731</v>
+        <v>39479</v>
       </c>
       <c r="C159">
-        <v>150.9</v>
+        <v>211.693</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2138,10 +2138,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>34759</v>
+        <v>39508</v>
       </c>
       <c r="C160">
-        <v>151.4</v>
+        <v>213.528</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2149,10 +2149,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>34790</v>
+        <v>39539</v>
       </c>
       <c r="C161">
-        <v>151.9</v>
+        <v>214.823</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2160,10 +2160,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>34820</v>
+        <v>39569</v>
       </c>
       <c r="C162">
-        <v>152.2</v>
+        <v>216.632</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2171,10 +2171,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>34851</v>
+        <v>39600</v>
       </c>
       <c r="C163">
-        <v>152.5</v>
+        <v>218.815</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2182,10 +2182,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>34881</v>
+        <v>39630</v>
       </c>
       <c r="C164">
-        <v>152.5</v>
+        <v>219.964</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2193,10 +2193,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>34912</v>
+        <v>39661</v>
       </c>
       <c r="C165">
-        <v>152.9</v>
+        <v>219.086</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2204,10 +2204,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>34943</v>
+        <v>39692</v>
       </c>
       <c r="C166">
-        <v>153.2</v>
+        <v>218.783</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2215,10 +2215,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>34973</v>
+        <v>39722</v>
       </c>
       <c r="C167">
-        <v>153.7</v>
+        <v>216.573</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2226,10 +2226,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>35004</v>
+        <v>39753</v>
       </c>
       <c r="C168">
-        <v>153.6</v>
+        <v>212.425</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2237,10 +2237,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>35034</v>
+        <v>39783</v>
       </c>
       <c r="C169">
-        <v>153.5</v>
+        <v>210.228</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2248,10 +2248,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>35065</v>
+        <v>39814</v>
       </c>
       <c r="C170">
-        <v>154.4</v>
+        <v>211.143</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2259,10 +2259,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>35096</v>
+        <v>39845</v>
       </c>
       <c r="C171">
-        <v>154.9</v>
+        <v>212.193</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2270,10 +2270,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>35125</v>
+        <v>39873</v>
       </c>
       <c r="C172">
-        <v>155.7</v>
+        <v>212.709</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2281,10 +2281,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>35156</v>
+        <v>39904</v>
       </c>
       <c r="C173">
-        <v>156.3</v>
+        <v>213.24</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2292,10 +2292,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>35186</v>
+        <v>39934</v>
       </c>
       <c r="C174">
-        <v>156.6</v>
+        <v>213.856</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2303,10 +2303,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>35217</v>
+        <v>39965</v>
       </c>
       <c r="C175">
-        <v>156.7</v>
+        <v>215.693</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2314,10 +2314,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>35247</v>
+        <v>39995</v>
       </c>
       <c r="C176">
-        <v>157</v>
+        <v>215.351</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2325,10 +2325,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>35278</v>
+        <v>40026</v>
       </c>
       <c r="C177">
-        <v>157.3</v>
+        <v>215.834</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2336,10 +2336,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>35309</v>
+        <v>40057</v>
       </c>
       <c r="C178">
-        <v>157.8</v>
+        <v>215.969</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2347,10 +2347,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>35339</v>
+        <v>40087</v>
       </c>
       <c r="C179">
-        <v>158.3</v>
+        <v>216.177</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2358,10 +2358,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>35370</v>
+        <v>40118</v>
       </c>
       <c r="C180">
-        <v>158.6</v>
+        <v>216.33</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2369,10 +2369,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>35400</v>
+        <v>40148</v>
       </c>
       <c r="C181">
-        <v>158.6</v>
+        <v>215.949</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2380,10 +2380,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>35431</v>
+        <v>40179</v>
       </c>
       <c r="C182">
-        <v>159.1</v>
+        <v>216.687</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2391,10 +2391,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>35462</v>
+        <v>40210</v>
       </c>
       <c r="C183">
-        <v>159.6</v>
+        <v>216.741</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2402,10 +2402,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>35490</v>
+        <v>40238</v>
       </c>
       <c r="C184">
-        <v>160</v>
+        <v>217.631</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2413,10 +2413,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>35521</v>
+        <v>40269</v>
       </c>
       <c r="C185">
-        <v>160.2</v>
+        <v>218.009</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2424,10 +2424,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>35551</v>
+        <v>40299</v>
       </c>
       <c r="C186">
-        <v>160.1</v>
+        <v>218.178</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2435,10 +2435,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>35582</v>
+        <v>40330</v>
       </c>
       <c r="C187">
-        <v>160.3</v>
+        <v>217.965</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2446,10 +2446,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>35612</v>
+        <v>40360</v>
       </c>
       <c r="C188">
-        <v>160.5</v>
+        <v>218.011</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2457,10 +2457,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>35643</v>
+        <v>40391</v>
       </c>
       <c r="C189">
-        <v>160.8</v>
+        <v>218.312</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2468,10 +2468,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>35674</v>
+        <v>40422</v>
       </c>
       <c r="C190">
-        <v>161.2</v>
+        <v>218.439</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2479,10 +2479,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>35704</v>
+        <v>40452</v>
       </c>
       <c r="C191">
-        <v>161.6</v>
+        <v>218.711</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2490,10 +2490,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>35735</v>
+        <v>40483</v>
       </c>
       <c r="C192">
-        <v>161.5</v>
+        <v>218.803</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2501,10 +2501,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>35765</v>
+        <v>40513</v>
       </c>
       <c r="C193">
-        <v>161.3</v>
+        <v>219.179</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2512,10 +2512,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>35796</v>
+        <v>40544</v>
       </c>
       <c r="C194">
-        <v>161.6</v>
+        <v>220.223</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2523,10 +2523,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>35827</v>
+        <v>40575</v>
       </c>
       <c r="C195">
-        <v>161.9</v>
+        <v>221.309</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2534,10 +2534,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>35855</v>
+        <v>40603</v>
       </c>
       <c r="C196">
-        <v>162.2</v>
+        <v>223.467</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2545,10 +2545,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>35886</v>
+        <v>40634</v>
       </c>
       <c r="C197">
-        <v>162.5</v>
+        <v>224.906</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2556,10 +2556,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>35916</v>
+        <v>40664</v>
       </c>
       <c r="C198">
-        <v>162.8</v>
+        <v>225.964</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2567,10 +2567,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>35947</v>
+        <v>40695</v>
       </c>
       <c r="C199">
-        <v>163</v>
+        <v>225.722</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2578,10 +2578,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>35977</v>
+        <v>40725</v>
       </c>
       <c r="C200">
-        <v>163.2</v>
+        <v>225.922</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2589,10 +2589,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>36008</v>
+        <v>40756</v>
       </c>
       <c r="C201">
-        <v>163.4</v>
+        <v>226.545</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2600,10 +2600,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>36039</v>
+        <v>40787</v>
       </c>
       <c r="C202">
-        <v>163.6</v>
+        <v>226.889</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2611,10 +2611,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>36069</v>
+        <v>40817</v>
       </c>
       <c r="C203">
-        <v>164</v>
+        <v>226.421</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2622,10 +2622,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>36100</v>
+        <v>40848</v>
       </c>
       <c r="C204">
-        <v>164</v>
+        <v>226.23</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2633,10 +2633,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>36130</v>
+        <v>40878</v>
       </c>
       <c r="C205">
-        <v>163.9</v>
+        <v>225.672</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2644,10 +2644,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>36161</v>
+        <v>40909</v>
       </c>
       <c r="C206">
-        <v>164.3</v>
+        <v>226.665</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2655,10 +2655,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>36192</v>
+        <v>40940</v>
       </c>
       <c r="C207">
-        <v>164.5</v>
+        <v>227.663</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2666,10 +2666,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>36220</v>
+        <v>40969</v>
       </c>
       <c r="C208">
-        <v>165</v>
+        <v>229.392</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2677,10 +2677,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>36251</v>
+        <v>41000</v>
       </c>
       <c r="C209">
-        <v>166.2</v>
+        <v>230.085</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2688,10 +2688,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>36281</v>
+        <v>41030</v>
       </c>
       <c r="C210">
-        <v>166.2</v>
+        <v>229.815</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2699,10 +2699,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>36312</v>
+        <v>41061</v>
       </c>
       <c r="C211">
-        <v>166.2</v>
+        <v>229.478</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2710,10 +2710,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>36342</v>
+        <v>41091</v>
       </c>
       <c r="C212">
-        <v>166.7</v>
+        <v>229.104</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2721,10 +2721,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>36373</v>
+        <v>41122</v>
       </c>
       <c r="C213">
-        <v>167.1</v>
+        <v>230.379</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2732,10 +2732,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>36404</v>
+        <v>41153</v>
       </c>
       <c r="C214">
-        <v>167.9</v>
+        <v>231.407</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2743,10 +2743,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>36434</v>
+        <v>41183</v>
       </c>
       <c r="C215">
-        <v>168.2</v>
+        <v>231.317</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2754,10 +2754,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>36465</v>
+        <v>41214</v>
       </c>
       <c r="C216">
-        <v>168.3</v>
+        <v>230.221</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2765,10 +2765,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>36495</v>
+        <v>41244</v>
       </c>
       <c r="C217">
-        <v>168.3</v>
+        <v>229.601</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2776,10 +2776,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>36526</v>
+        <v>41275</v>
       </c>
       <c r="C218">
-        <v>168.8</v>
+        <v>230.28</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2787,10 +2787,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>36557</v>
+        <v>41306</v>
       </c>
       <c r="C219">
-        <v>169.8</v>
+        <v>232.166</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2798,10 +2798,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>36586</v>
+        <v>41334</v>
       </c>
       <c r="C220">
-        <v>171.2</v>
+        <v>232.773</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2809,10 +2809,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>36617</v>
+        <v>41365</v>
       </c>
       <c r="C221">
-        <v>171.3</v>
+        <v>232.531</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2820,10 +2820,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>36647</v>
+        <v>41395</v>
       </c>
       <c r="C222">
-        <v>171.5</v>
+        <v>232.945</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2831,10 +2831,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>36678</v>
+        <v>41426</v>
       </c>
       <c r="C223">
-        <v>172.4</v>
+        <v>233.504</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2842,10 +2842,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>36708</v>
+        <v>41456</v>
       </c>
       <c r="C224">
-        <v>172.8</v>
+        <v>233.596</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2853,10 +2853,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>36739</v>
+        <v>41487</v>
       </c>
       <c r="C225">
-        <v>172.8</v>
+        <v>233.877</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2864,10 +2864,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>36770</v>
+        <v>41518</v>
       </c>
       <c r="C226">
-        <v>173.7</v>
+        <v>234.149</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2875,10 +2875,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>36800</v>
+        <v>41548</v>
       </c>
       <c r="C227">
-        <v>174</v>
+        <v>233.546</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2886,10 +2886,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>36831</v>
+        <v>41579</v>
       </c>
       <c r="C228">
-        <v>174.1</v>
+        <v>233.069</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2897,10 +2897,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>36861</v>
+        <v>41609</v>
       </c>
       <c r="C229">
-        <v>174</v>
+        <v>233.049</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2908,10 +2908,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>36892</v>
+        <v>41640</v>
       </c>
       <c r="C230">
-        <v>175.1</v>
+        <v>233.916</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2919,10 +2919,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>36923</v>
+        <v>41671</v>
       </c>
       <c r="C231">
-        <v>175.8</v>
+        <v>234.781</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2930,10 +2930,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>36951</v>
+        <v>41699</v>
       </c>
       <c r="C232">
-        <v>176.2</v>
+        <v>236.293</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2941,10 +2941,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>36982</v>
+        <v>41730</v>
       </c>
       <c r="C233">
-        <v>176.9</v>
+        <v>237.072</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2952,10 +2952,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>37012</v>
+        <v>41760</v>
       </c>
       <c r="C234">
-        <v>177.7</v>
+        <v>237.9</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2963,10 +2963,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>37043</v>
+        <v>41791</v>
       </c>
       <c r="C235">
-        <v>178</v>
+        <v>238.343</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2974,10 +2974,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>37073</v>
+        <v>41821</v>
       </c>
       <c r="C236">
-        <v>177.5</v>
+        <v>238.25</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2985,10 +2985,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>37104</v>
+        <v>41852</v>
       </c>
       <c r="C237">
-        <v>177.5</v>
+        <v>237.852</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2996,10 +2996,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>37135</v>
+        <v>41883</v>
       </c>
       <c r="C238">
-        <v>178.3</v>
+        <v>238.031</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3007,10 +3007,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>37165</v>
+        <v>41913</v>
       </c>
       <c r="C239">
-        <v>177.7</v>
+        <v>237.433</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3018,10 +3018,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>37196</v>
+        <v>41944</v>
       </c>
       <c r="C240">
-        <v>177.4</v>
+        <v>236.151</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3029,10 +3029,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>37226</v>
+        <v>41974</v>
       </c>
       <c r="C241">
-        <v>176.7</v>
+        <v>234.812</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3040,10 +3040,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>37257</v>
+        <v>42005</v>
       </c>
       <c r="C242">
-        <v>177.1</v>
+        <v>233.707</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3051,10 +3051,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>37288</v>
+        <v>42036</v>
       </c>
       <c r="C243">
-        <v>177.8</v>
+        <v>234.722</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3062,10 +3062,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>37316</v>
+        <v>42064</v>
       </c>
       <c r="C244">
-        <v>178.8</v>
+        <v>236.119</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3073,10 +3073,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>37347</v>
+        <v>42095</v>
       </c>
       <c r="C245">
-        <v>179.8</v>
+        <v>236.599</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3084,10 +3084,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>37377</v>
+        <v>42125</v>
       </c>
       <c r="C246">
-        <v>179.8</v>
+        <v>237.805</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3095,10 +3095,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>37408</v>
+        <v>42156</v>
       </c>
       <c r="C247">
-        <v>179.9</v>
+        <v>238.638</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3106,10 +3106,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>37438</v>
+        <v>42186</v>
       </c>
       <c r="C248">
-        <v>180.1</v>
+        <v>238.654</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3117,10 +3117,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>37469</v>
+        <v>42217</v>
       </c>
       <c r="C249">
-        <v>180.7</v>
+        <v>238.316</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3128,10 +3128,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>37500</v>
+        <v>42248</v>
       </c>
       <c r="C250">
-        <v>181</v>
+        <v>237.945</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3139,10 +3139,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>37530</v>
+        <v>42278</v>
       </c>
       <c r="C251">
-        <v>181.3</v>
+        <v>237.838</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3150,10 +3150,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>37561</v>
+        <v>42309</v>
       </c>
       <c r="C252">
-        <v>181.3</v>
+        <v>237.336</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3161,10 +3161,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>37591</v>
+        <v>42339</v>
       </c>
       <c r="C253">
-        <v>180.9</v>
+        <v>236.525</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3172,10 +3172,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>37622</v>
+        <v>42370</v>
       </c>
       <c r="C254">
-        <v>181.7</v>
+        <v>236.916</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3183,10 +3183,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>37653</v>
+        <v>42401</v>
       </c>
       <c r="C255">
-        <v>183.1</v>
+        <v>237.111</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3194,10 +3194,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>37681</v>
+        <v>42430</v>
       </c>
       <c r="C256">
-        <v>184.2</v>
+        <v>238.132</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3205,10 +3205,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>37712</v>
+        <v>42461</v>
       </c>
       <c r="C257">
-        <v>183.8</v>
+        <v>239.261</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3216,10 +3216,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>37742</v>
+        <v>42491</v>
       </c>
       <c r="C258">
-        <v>183.5</v>
+        <v>240.229</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3227,10 +3227,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>37773</v>
+        <v>42522</v>
       </c>
       <c r="C259">
-        <v>183.7</v>
+        <v>241.018</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3238,10 +3238,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>37803</v>
+        <v>42552</v>
       </c>
       <c r="C260">
-        <v>183.9</v>
+        <v>240.628</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3249,10 +3249,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>37834</v>
+        <v>42583</v>
       </c>
       <c r="C261">
-        <v>184.6</v>
+        <v>240.849</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3260,10 +3260,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>37865</v>
+        <v>42614</v>
       </c>
       <c r="C262">
-        <v>185.2</v>
+        <v>241.428</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3271,10 +3271,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>37895</v>
+        <v>42644</v>
       </c>
       <c r="C263">
-        <v>185</v>
+        <v>241.729</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3282,10 +3282,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>37926</v>
+        <v>42675</v>
       </c>
       <c r="C264">
-        <v>184.5</v>
+        <v>241.353</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3293,10 +3293,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>37956</v>
+        <v>42705</v>
       </c>
       <c r="C265">
-        <v>184.3</v>
+        <v>241.432</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3304,10 +3304,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>37987</v>
+        <v>42736</v>
       </c>
       <c r="C266">
-        <v>185.2</v>
+        <v>242.839</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3315,10 +3315,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>38018</v>
+        <v>42767</v>
       </c>
       <c r="C267">
-        <v>186.2</v>
+        <v>243.603</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3326,10 +3326,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>38047</v>
+        <v>42795</v>
       </c>
       <c r="C268">
-        <v>187.4</v>
+        <v>243.801</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3337,10 +3337,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>38078</v>
+        <v>42826</v>
       </c>
       <c r="C269">
-        <v>188</v>
+        <v>244.524</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3348,10 +3348,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>38108</v>
+        <v>42856</v>
       </c>
       <c r="C270">
-        <v>189.1</v>
+        <v>244.733</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3359,10 +3359,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>38139</v>
+        <v>42887</v>
       </c>
       <c r="C271">
-        <v>189.7</v>
+        <v>244.955</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3370,10 +3370,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>38169</v>
+        <v>42917</v>
       </c>
       <c r="C272">
-        <v>189.4</v>
+        <v>244.786</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3381,10 +3381,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>38200</v>
+        <v>42948</v>
       </c>
       <c r="C273">
-        <v>189.5</v>
+        <v>245.519</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3392,10 +3392,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>38231</v>
+        <v>42979</v>
       </c>
       <c r="C274">
-        <v>189.9</v>
+        <v>246.819</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3403,10 +3403,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>38261</v>
+        <v>43009</v>
       </c>
       <c r="C275">
-        <v>190.9</v>
+        <v>246.663</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3414,10 +3414,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>38292</v>
+        <v>43040</v>
       </c>
       <c r="C276">
-        <v>191</v>
+        <v>246.669</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3425,10 +3425,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>38322</v>
+        <v>43070</v>
       </c>
       <c r="C277">
-        <v>190.3</v>
+        <v>246.524</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3436,10 +3436,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>38353</v>
+        <v>43101</v>
       </c>
       <c r="C278">
-        <v>190.7</v>
+        <v>247.867</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3447,10 +3447,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>38384</v>
+        <v>43132</v>
       </c>
       <c r="C279">
-        <v>191.8</v>
+        <v>248.991</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3458,10 +3458,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>38412</v>
+        <v>43160</v>
       </c>
       <c r="C280">
-        <v>193.3</v>
+        <v>249.554</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3469,10 +3469,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>38443</v>
+        <v>43191</v>
       </c>
       <c r="C281">
-        <v>194.6</v>
+        <v>250.546</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3480,10 +3480,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>38473</v>
+        <v>43221</v>
       </c>
       <c r="C282">
-        <v>194.4</v>
+        <v>251.588</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3491,10 +3491,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>38504</v>
+        <v>43252</v>
       </c>
       <c r="C283">
-        <v>194.5</v>
+        <v>251.989</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3502,10 +3502,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>38534</v>
+        <v>43282</v>
       </c>
       <c r="C284">
-        <v>195.4</v>
+        <v>252.006</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3513,10 +3513,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>38565</v>
+        <v>43313</v>
       </c>
       <c r="C285">
-        <v>196.4</v>
+        <v>252.146</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3524,10 +3524,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>38596</v>
+        <v>43344</v>
       </c>
       <c r="C286">
-        <v>198.8</v>
+        <v>252.439</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3535,10 +3535,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>38626</v>
+        <v>43374</v>
       </c>
       <c r="C287">
-        <v>199.2</v>
+        <v>252.885</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3546,10 +3546,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>38657</v>
+        <v>43405</v>
       </c>
       <c r="C288">
-        <v>197.6</v>
+        <v>252.038</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3557,10 +3557,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>38687</v>
+        <v>43435</v>
       </c>
       <c r="C289">
-        <v>196.8</v>
+        <v>251.233</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3568,10 +3568,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>38718</v>
+        <v>43466</v>
       </c>
       <c r="C290">
-        <v>198.3</v>
+        <v>251.712</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3579,10 +3579,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>38749</v>
+        <v>43497</v>
       </c>
       <c r="C291">
-        <v>198.7</v>
+        <v>252.776</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3590,10 +3590,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>38777</v>
+        <v>43525</v>
       </c>
       <c r="C292">
-        <v>199.8</v>
+        <v>254.202</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3601,10 +3601,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>38808</v>
+        <v>43556</v>
       </c>
       <c r="C293">
-        <v>201.5</v>
+        <v>255.548</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3612,10 +3612,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>38838</v>
+        <v>43586</v>
       </c>
       <c r="C294">
-        <v>202.5</v>
+        <v>256.092</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3623,10 +3623,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>38869</v>
+        <v>43617</v>
       </c>
       <c r="C295">
-        <v>202.9</v>
+        <v>256.143</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3634,10 +3634,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>38899</v>
+        <v>43647</v>
       </c>
       <c r="C296">
-        <v>203.5</v>
+        <v>256.571</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3645,10 +3645,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>38930</v>
+        <v>43678</v>
       </c>
       <c r="C297">
-        <v>203.9</v>
+        <v>256.558</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3656,10 +3656,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>38961</v>
+        <v>43709</v>
       </c>
       <c r="C298">
-        <v>202.9</v>
+        <v>256.759</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3667,10 +3667,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>38991</v>
+        <v>43739</v>
       </c>
       <c r="C299">
-        <v>201.8</v>
+        <v>257.346</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3678,10 +3678,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>39022</v>
+        <v>43770</v>
       </c>
       <c r="C300">
-        <v>201.5</v>
+        <v>257.208</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3689,10 +3689,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>39052</v>
+        <v>43800</v>
       </c>
       <c r="C301">
-        <v>201.8</v>
+        <v>256.974</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3700,10 +3700,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>39083</v>
+        <v>43831</v>
       </c>
       <c r="C302">
-        <v>202.416</v>
+        <v>257.971</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3711,10 +3711,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>39114</v>
+        <v>43862</v>
       </c>
       <c r="C303">
-        <v>203.499</v>
+        <v>258.678</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3722,10 +3722,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>39142</v>
+        <v>43891</v>
       </c>
       <c r="C304">
-        <v>205.352</v>
+        <v>258.115</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3733,10 +3733,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>39173</v>
+        <v>43922</v>
       </c>
       <c r="C305">
-        <v>206.686</v>
+        <v>256.389</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3744,10 +3744,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>39203</v>
+        <v>43952</v>
       </c>
       <c r="C306">
-        <v>207.949</v>
+        <v>256.394</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3755,10 +3755,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>39234</v>
+        <v>43983</v>
       </c>
       <c r="C307">
-        <v>208.352</v>
+        <v>257.797</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3766,10 +3766,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>39264</v>
+        <v>44013</v>
       </c>
       <c r="C308">
-        <v>208.299</v>
+        <v>259.101</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3777,10 +3777,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>39295</v>
+        <v>44044</v>
       </c>
       <c r="C309">
-        <v>207.917</v>
+        <v>259.918</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3788,10 +3788,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>39326</v>
+        <v>44075</v>
       </c>
       <c r="C310">
-        <v>208.49</v>
+        <v>260.28</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3799,10 +3799,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>39356</v>
+        <v>44105</v>
       </c>
       <c r="C311">
-        <v>208.936</v>
+        <v>260.388</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3810,10 +3810,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>39387</v>
+        <v>44136</v>
       </c>
       <c r="C312">
-        <v>210.177</v>
+        <v>260.229</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3821,10 +3821,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>39417</v>
+        <v>44166</v>
       </c>
       <c r="C313">
-        <v>210.036</v>
+        <v>260.474</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3832,10 +3832,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>39448</v>
+        <v>44197</v>
       </c>
       <c r="C314">
-        <v>211.08</v>
+        <v>261.582</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3843,10 +3843,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>39479</v>
+        <v>44228</v>
       </c>
       <c r="C315">
-        <v>211.693</v>
+        <v>263.014</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3854,10 +3854,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>39508</v>
+        <v>44256</v>
       </c>
       <c r="C316">
-        <v>213.528</v>
+        <v>264.877</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3865,10 +3865,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>39539</v>
+        <v>44287</v>
       </c>
       <c r="C317">
-        <v>214.823</v>
+        <v>267.054</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3876,10 +3876,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>39569</v>
+        <v>44317</v>
       </c>
       <c r="C318">
-        <v>216.632</v>
+        <v>269.195</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3887,10 +3887,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>39600</v>
+        <v>44348</v>
       </c>
       <c r="C319">
-        <v>218.815</v>
+        <v>271.696</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3898,10 +3898,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>39630</v>
+        <v>44378</v>
       </c>
       <c r="C320">
-        <v>219.964</v>
+        <v>273.003</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3909,10 +3909,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>39661</v>
+        <v>44409</v>
       </c>
       <c r="C321">
-        <v>219.086</v>
+        <v>273.567</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3920,10 +3920,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>39692</v>
+        <v>44440</v>
       </c>
       <c r="C322">
-        <v>218.783</v>
+        <v>274.31</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3931,10 +3931,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>39722</v>
-      </c>
-      <c r="C323">
-        <v>216.573</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3942,10 +3939,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>39753</v>
-      </c>
-      <c r="C324">
-        <v>212.425</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3953,1716 +3947,6 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>39783</v>
-      </c>
-      <c r="C325">
-        <v>210.228</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326" s="2">
-        <v>39814</v>
-      </c>
-      <c r="C326">
-        <v>211.143</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="B327" s="2">
-        <v>39845</v>
-      </c>
-      <c r="C327">
-        <v>212.193</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="B328" s="2">
-        <v>39873</v>
-      </c>
-      <c r="C328">
-        <v>212.709</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329" s="2">
-        <v>39904</v>
-      </c>
-      <c r="C329">
-        <v>213.24</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330" s="2">
-        <v>39934</v>
-      </c>
-      <c r="C330">
-        <v>213.856</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="1">
-        <v>329</v>
-      </c>
-      <c r="B331" s="2">
-        <v>39965</v>
-      </c>
-      <c r="C331">
-        <v>215.693</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="1">
-        <v>330</v>
-      </c>
-      <c r="B332" s="2">
-        <v>39995</v>
-      </c>
-      <c r="C332">
-        <v>215.351</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333" s="2">
-        <v>40026</v>
-      </c>
-      <c r="C333">
-        <v>215.834</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334" s="2">
-        <v>40057</v>
-      </c>
-      <c r="C334">
-        <v>215.969</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335" s="2">
-        <v>40087</v>
-      </c>
-      <c r="C335">
-        <v>216.177</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="B336" s="2">
-        <v>40118</v>
-      </c>
-      <c r="C336">
-        <v>216.33</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="B337" s="2">
-        <v>40148</v>
-      </c>
-      <c r="C337">
-        <v>215.949</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="1">
-        <v>336</v>
-      </c>
-      <c r="B338" s="2">
-        <v>40179</v>
-      </c>
-      <c r="C338">
-        <v>216.687</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="B339" s="2">
-        <v>40210</v>
-      </c>
-      <c r="C339">
-        <v>216.741</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="1">
-        <v>338</v>
-      </c>
-      <c r="B340" s="2">
-        <v>40238</v>
-      </c>
-      <c r="C340">
-        <v>217.631</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="1">
-        <v>339</v>
-      </c>
-      <c r="B341" s="2">
-        <v>40269</v>
-      </c>
-      <c r="C341">
-        <v>218.009</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="1">
-        <v>340</v>
-      </c>
-      <c r="B342" s="2">
-        <v>40299</v>
-      </c>
-      <c r="C342">
-        <v>218.178</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343" s="2">
-        <v>40330</v>
-      </c>
-      <c r="C343">
-        <v>217.965</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="1">
-        <v>342</v>
-      </c>
-      <c r="B344" s="2">
-        <v>40360</v>
-      </c>
-      <c r="C344">
-        <v>218.011</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="1">
-        <v>343</v>
-      </c>
-      <c r="B345" s="2">
-        <v>40391</v>
-      </c>
-      <c r="C345">
-        <v>218.312</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="1">
-        <v>344</v>
-      </c>
-      <c r="B346" s="2">
-        <v>40422</v>
-      </c>
-      <c r="C346">
-        <v>218.439</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="1">
-        <v>345</v>
-      </c>
-      <c r="B347" s="2">
-        <v>40452</v>
-      </c>
-      <c r="C347">
-        <v>218.711</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="1">
-        <v>346</v>
-      </c>
-      <c r="B348" s="2">
-        <v>40483</v>
-      </c>
-      <c r="C348">
-        <v>218.803</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="B349" s="2">
-        <v>40513</v>
-      </c>
-      <c r="C349">
-        <v>219.179</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="B350" s="2">
-        <v>40544</v>
-      </c>
-      <c r="C350">
-        <v>220.223</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="B351" s="2">
-        <v>40575</v>
-      </c>
-      <c r="C351">
-        <v>221.309</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="B352" s="2">
-        <v>40603</v>
-      </c>
-      <c r="C352">
-        <v>223.467</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="1">
-        <v>351</v>
-      </c>
-      <c r="B353" s="2">
-        <v>40634</v>
-      </c>
-      <c r="C353">
-        <v>224.906</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354" s="2">
-        <v>40664</v>
-      </c>
-      <c r="C354">
-        <v>225.964</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355" s="2">
-        <v>40695</v>
-      </c>
-      <c r="C355">
-        <v>225.722</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356" s="2">
-        <v>40725</v>
-      </c>
-      <c r="C356">
-        <v>225.922</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357" s="2">
-        <v>40756</v>
-      </c>
-      <c r="C357">
-        <v>226.545</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="1">
-        <v>356</v>
-      </c>
-      <c r="B358" s="2">
-        <v>40787</v>
-      </c>
-      <c r="C358">
-        <v>226.889</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="1">
-        <v>357</v>
-      </c>
-      <c r="B359" s="2">
-        <v>40817</v>
-      </c>
-      <c r="C359">
-        <v>226.421</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="1">
-        <v>358</v>
-      </c>
-      <c r="B360" s="2">
-        <v>40848</v>
-      </c>
-      <c r="C360">
-        <v>226.23</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="1">
-        <v>359</v>
-      </c>
-      <c r="B361" s="2">
-        <v>40878</v>
-      </c>
-      <c r="C361">
-        <v>225.672</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="1">
-        <v>360</v>
-      </c>
-      <c r="B362" s="2">
-        <v>40909</v>
-      </c>
-      <c r="C362">
-        <v>226.665</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="1">
-        <v>361</v>
-      </c>
-      <c r="B363" s="2">
-        <v>40940</v>
-      </c>
-      <c r="C363">
-        <v>227.663</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="1">
-        <v>362</v>
-      </c>
-      <c r="B364" s="2">
-        <v>40969</v>
-      </c>
-      <c r="C364">
-        <v>229.392</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="1">
-        <v>363</v>
-      </c>
-      <c r="B365" s="2">
-        <v>41000</v>
-      </c>
-      <c r="C365">
-        <v>230.085</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="1">
-        <v>364</v>
-      </c>
-      <c r="B366" s="2">
-        <v>41030</v>
-      </c>
-      <c r="C366">
-        <v>229.815</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367" s="1">
-        <v>365</v>
-      </c>
-      <c r="B367" s="2">
-        <v>41061</v>
-      </c>
-      <c r="C367">
-        <v>229.478</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368" s="1">
-        <v>366</v>
-      </c>
-      <c r="B368" s="2">
-        <v>41091</v>
-      </c>
-      <c r="C368">
-        <v>229.104</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="A369" s="1">
-        <v>367</v>
-      </c>
-      <c r="B369" s="2">
-        <v>41122</v>
-      </c>
-      <c r="C369">
-        <v>230.379</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="1">
-        <v>368</v>
-      </c>
-      <c r="B370" s="2">
-        <v>41153</v>
-      </c>
-      <c r="C370">
-        <v>231.407</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="1">
-        <v>369</v>
-      </c>
-      <c r="B371" s="2">
-        <v>41183</v>
-      </c>
-      <c r="C371">
-        <v>231.317</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
-      <c r="A372" s="1">
-        <v>370</v>
-      </c>
-      <c r="B372" s="2">
-        <v>41214</v>
-      </c>
-      <c r="C372">
-        <v>230.221</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
-      <c r="A373" s="1">
-        <v>371</v>
-      </c>
-      <c r="B373" s="2">
-        <v>41244</v>
-      </c>
-      <c r="C373">
-        <v>229.601</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
-      <c r="A374" s="1">
-        <v>372</v>
-      </c>
-      <c r="B374" s="2">
-        <v>41275</v>
-      </c>
-      <c r="C374">
-        <v>230.28</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="B375" s="2">
-        <v>41306</v>
-      </c>
-      <c r="C375">
-        <v>232.166</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376" s="1">
-        <v>374</v>
-      </c>
-      <c r="B376" s="2">
-        <v>41334</v>
-      </c>
-      <c r="C376">
-        <v>232.773</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="A377" s="1">
-        <v>375</v>
-      </c>
-      <c r="B377" s="2">
-        <v>41365</v>
-      </c>
-      <c r="C377">
-        <v>232.531</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378" s="1">
-        <v>376</v>
-      </c>
-      <c r="B378" s="2">
-        <v>41395</v>
-      </c>
-      <c r="C378">
-        <v>232.945</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="B379" s="2">
-        <v>41426</v>
-      </c>
-      <c r="C379">
-        <v>233.504</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
-      <c r="A380" s="1">
-        <v>378</v>
-      </c>
-      <c r="B380" s="2">
-        <v>41456</v>
-      </c>
-      <c r="C380">
-        <v>233.596</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" s="1">
-        <v>379</v>
-      </c>
-      <c r="B381" s="2">
-        <v>41487</v>
-      </c>
-      <c r="C381">
-        <v>233.877</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" s="1">
-        <v>380</v>
-      </c>
-      <c r="B382" s="2">
-        <v>41518</v>
-      </c>
-      <c r="C382">
-        <v>234.149</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" s="1">
-        <v>381</v>
-      </c>
-      <c r="B383" s="2">
-        <v>41548</v>
-      </c>
-      <c r="C383">
-        <v>233.546</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="1">
-        <v>382</v>
-      </c>
-      <c r="B384" s="2">
-        <v>41579</v>
-      </c>
-      <c r="C384">
-        <v>233.069</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
-      <c r="A385" s="1">
-        <v>383</v>
-      </c>
-      <c r="B385" s="2">
-        <v>41609</v>
-      </c>
-      <c r="C385">
-        <v>233.049</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386" s="1">
-        <v>384</v>
-      </c>
-      <c r="B386" s="2">
-        <v>41640</v>
-      </c>
-      <c r="C386">
-        <v>233.916</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="A387" s="1">
-        <v>385</v>
-      </c>
-      <c r="B387" s="2">
-        <v>41671</v>
-      </c>
-      <c r="C387">
-        <v>234.781</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
-      <c r="A388" s="1">
-        <v>386</v>
-      </c>
-      <c r="B388" s="2">
-        <v>41699</v>
-      </c>
-      <c r="C388">
-        <v>236.293</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
-      <c r="A389" s="1">
-        <v>387</v>
-      </c>
-      <c r="B389" s="2">
-        <v>41730</v>
-      </c>
-      <c r="C389">
-        <v>237.072</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
-      <c r="A390" s="1">
-        <v>388</v>
-      </c>
-      <c r="B390" s="2">
-        <v>41760</v>
-      </c>
-      <c r="C390">
-        <v>237.9</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
-      <c r="A391" s="1">
-        <v>389</v>
-      </c>
-      <c r="B391" s="2">
-        <v>41791</v>
-      </c>
-      <c r="C391">
-        <v>238.343</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
-      <c r="A392" s="1">
-        <v>390</v>
-      </c>
-      <c r="B392" s="2">
-        <v>41821</v>
-      </c>
-      <c r="C392">
-        <v>238.25</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
-      <c r="A393" s="1">
-        <v>391</v>
-      </c>
-      <c r="B393" s="2">
-        <v>41852</v>
-      </c>
-      <c r="C393">
-        <v>237.852</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
-      <c r="A394" s="1">
-        <v>392</v>
-      </c>
-      <c r="B394" s="2">
-        <v>41883</v>
-      </c>
-      <c r="C394">
-        <v>238.031</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
-      <c r="A395" s="1">
-        <v>393</v>
-      </c>
-      <c r="B395" s="2">
-        <v>41913</v>
-      </c>
-      <c r="C395">
-        <v>237.433</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
-      <c r="A396" s="1">
-        <v>394</v>
-      </c>
-      <c r="B396" s="2">
-        <v>41944</v>
-      </c>
-      <c r="C396">
-        <v>236.151</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="1">
-        <v>395</v>
-      </c>
-      <c r="B397" s="2">
-        <v>41974</v>
-      </c>
-      <c r="C397">
-        <v>234.812</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="A398" s="1">
-        <v>396</v>
-      </c>
-      <c r="B398" s="2">
-        <v>42005</v>
-      </c>
-      <c r="C398">
-        <v>233.707</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
-      <c r="A399" s="1">
-        <v>397</v>
-      </c>
-      <c r="B399" s="2">
-        <v>42036</v>
-      </c>
-      <c r="C399">
-        <v>234.722</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
-      <c r="A400" s="1">
-        <v>398</v>
-      </c>
-      <c r="B400" s="2">
-        <v>42064</v>
-      </c>
-      <c r="C400">
-        <v>236.119</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
-      <c r="A401" s="1">
-        <v>399</v>
-      </c>
-      <c r="B401" s="2">
-        <v>42095</v>
-      </c>
-      <c r="C401">
-        <v>236.599</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="1">
-        <v>400</v>
-      </c>
-      <c r="B402" s="2">
-        <v>42125</v>
-      </c>
-      <c r="C402">
-        <v>237.805</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="A403" s="1">
-        <v>401</v>
-      </c>
-      <c r="B403" s="2">
-        <v>42156</v>
-      </c>
-      <c r="C403">
-        <v>238.638</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
-      <c r="A404" s="1">
-        <v>402</v>
-      </c>
-      <c r="B404" s="2">
-        <v>42186</v>
-      </c>
-      <c r="C404">
-        <v>238.654</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
-      <c r="A405" s="1">
-        <v>403</v>
-      </c>
-      <c r="B405" s="2">
-        <v>42217</v>
-      </c>
-      <c r="C405">
-        <v>238.316</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3">
-      <c r="A406" s="1">
-        <v>404</v>
-      </c>
-      <c r="B406" s="2">
-        <v>42248</v>
-      </c>
-      <c r="C406">
-        <v>237.945</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3">
-      <c r="A407" s="1">
-        <v>405</v>
-      </c>
-      <c r="B407" s="2">
-        <v>42278</v>
-      </c>
-      <c r="C407">
-        <v>237.838</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
-      <c r="A408" s="1">
-        <v>406</v>
-      </c>
-      <c r="B408" s="2">
-        <v>42309</v>
-      </c>
-      <c r="C408">
-        <v>237.336</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3">
-      <c r="A409" s="1">
-        <v>407</v>
-      </c>
-      <c r="B409" s="2">
-        <v>42339</v>
-      </c>
-      <c r="C409">
-        <v>236.525</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3">
-      <c r="A410" s="1">
-        <v>408</v>
-      </c>
-      <c r="B410" s="2">
-        <v>42370</v>
-      </c>
-      <c r="C410">
-        <v>236.916</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
-      <c r="A411" s="1">
-        <v>409</v>
-      </c>
-      <c r="B411" s="2">
-        <v>42401</v>
-      </c>
-      <c r="C411">
-        <v>237.111</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3">
-      <c r="A412" s="1">
-        <v>410</v>
-      </c>
-      <c r="B412" s="2">
-        <v>42430</v>
-      </c>
-      <c r="C412">
-        <v>238.132</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
-      <c r="A413" s="1">
-        <v>411</v>
-      </c>
-      <c r="B413" s="2">
-        <v>42461</v>
-      </c>
-      <c r="C413">
-        <v>239.261</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
-      <c r="A414" s="1">
-        <v>412</v>
-      </c>
-      <c r="B414" s="2">
-        <v>42491</v>
-      </c>
-      <c r="C414">
-        <v>240.229</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
-      <c r="A415" s="1">
-        <v>413</v>
-      </c>
-      <c r="B415" s="2">
-        <v>42522</v>
-      </c>
-      <c r="C415">
-        <v>241.018</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
-      <c r="A416" s="1">
-        <v>414</v>
-      </c>
-      <c r="B416" s="2">
-        <v>42552</v>
-      </c>
-      <c r="C416">
-        <v>240.628</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="B417" s="2">
-        <v>42583</v>
-      </c>
-      <c r="C417">
-        <v>240.849</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
-      <c r="A418" s="1">
-        <v>416</v>
-      </c>
-      <c r="B418" s="2">
-        <v>42614</v>
-      </c>
-      <c r="C418">
-        <v>241.428</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
-      <c r="A419" s="1">
-        <v>417</v>
-      </c>
-      <c r="B419" s="2">
-        <v>42644</v>
-      </c>
-      <c r="C419">
-        <v>241.729</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
-      <c r="A420" s="1">
-        <v>418</v>
-      </c>
-      <c r="B420" s="2">
-        <v>42675</v>
-      </c>
-      <c r="C420">
-        <v>241.353</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
-      <c r="A421" s="1">
-        <v>419</v>
-      </c>
-      <c r="B421" s="2">
-        <v>42705</v>
-      </c>
-      <c r="C421">
-        <v>241.432</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
-      <c r="A422" s="1">
-        <v>420</v>
-      </c>
-      <c r="B422" s="2">
-        <v>42736</v>
-      </c>
-      <c r="C422">
-        <v>242.839</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3">
-      <c r="A423" s="1">
-        <v>421</v>
-      </c>
-      <c r="B423" s="2">
-        <v>42767</v>
-      </c>
-      <c r="C423">
-        <v>243.603</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="A424" s="1">
-        <v>422</v>
-      </c>
-      <c r="B424" s="2">
-        <v>42795</v>
-      </c>
-      <c r="C424">
-        <v>243.801</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="A425" s="1">
-        <v>423</v>
-      </c>
-      <c r="B425" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C425">
-        <v>244.524</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="A426" s="1">
-        <v>424</v>
-      </c>
-      <c r="B426" s="2">
-        <v>42856</v>
-      </c>
-      <c r="C426">
-        <v>244.733</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
-      <c r="A427" s="1">
-        <v>425</v>
-      </c>
-      <c r="B427" s="2">
-        <v>42887</v>
-      </c>
-      <c r="C427">
-        <v>244.955</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="A428" s="1">
-        <v>426</v>
-      </c>
-      <c r="B428" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C428">
-        <v>244.786</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3">
-      <c r="A429" s="1">
-        <v>427</v>
-      </c>
-      <c r="B429" s="2">
-        <v>42948</v>
-      </c>
-      <c r="C429">
-        <v>245.519</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
-      <c r="A430" s="1">
-        <v>428</v>
-      </c>
-      <c r="B430" s="2">
-        <v>42979</v>
-      </c>
-      <c r="C430">
-        <v>246.819</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
-      <c r="A431" s="1">
-        <v>429</v>
-      </c>
-      <c r="B431" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C431">
-        <v>246.663</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="A432" s="1">
-        <v>430</v>
-      </c>
-      <c r="B432" s="2">
-        <v>43040</v>
-      </c>
-      <c r="C432">
-        <v>246.669</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
-      <c r="A433" s="1">
-        <v>431</v>
-      </c>
-      <c r="B433" s="2">
-        <v>43070</v>
-      </c>
-      <c r="C433">
-        <v>246.524</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
-      <c r="A434" s="1">
-        <v>432</v>
-      </c>
-      <c r="B434" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C434">
-        <v>247.867</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
-      <c r="A435" s="1">
-        <v>433</v>
-      </c>
-      <c r="B435" s="2">
-        <v>43132</v>
-      </c>
-      <c r="C435">
-        <v>248.991</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
-      <c r="A436" s="1">
-        <v>434</v>
-      </c>
-      <c r="B436" s="2">
-        <v>43160</v>
-      </c>
-      <c r="C436">
-        <v>249.554</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
-      <c r="A437" s="1">
-        <v>435</v>
-      </c>
-      <c r="B437" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C437">
-        <v>250.546</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
-      <c r="A438" s="1">
-        <v>436</v>
-      </c>
-      <c r="B438" s="2">
-        <v>43221</v>
-      </c>
-      <c r="C438">
-        <v>251.588</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
-      <c r="A439" s="1">
-        <v>437</v>
-      </c>
-      <c r="B439" s="2">
-        <v>43252</v>
-      </c>
-      <c r="C439">
-        <v>251.989</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="B440" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C440">
-        <v>252.006</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441" s="2">
-        <v>43313</v>
-      </c>
-      <c r="C441">
-        <v>252.146</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442" s="2">
-        <v>43344</v>
-      </c>
-      <c r="C442">
-        <v>252.439</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C443">
-        <v>252.885</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444" s="2">
-        <v>43405</v>
-      </c>
-      <c r="C444">
-        <v>252.038</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445" s="2">
-        <v>43435</v>
-      </c>
-      <c r="C445">
-        <v>251.233</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C446">
-        <v>251.712</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="B447" s="2">
-        <v>43497</v>
-      </c>
-      <c r="C447">
-        <v>252.776</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="B448" s="2">
-        <v>43525</v>
-      </c>
-      <c r="C448">
-        <v>254.202</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="B449" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C449">
-        <v>255.548</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="B450" s="2">
-        <v>43586</v>
-      </c>
-      <c r="C450">
-        <v>256.092</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="B451" s="2">
-        <v>43617</v>
-      </c>
-      <c r="C451">
-        <v>256.143</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="B452" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C452">
-        <v>256.571</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="B453" s="2">
-        <v>43678</v>
-      </c>
-      <c r="C453">
-        <v>256.558</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
-      <c r="A454" s="1">
-        <v>452</v>
-      </c>
-      <c r="B454" s="2">
-        <v>43709</v>
-      </c>
-      <c r="C454">
-        <v>256.759</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
-      <c r="A455" s="1">
-        <v>453</v>
-      </c>
-      <c r="B455" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C455">
-        <v>257.346</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3">
-      <c r="A456" s="1">
-        <v>454</v>
-      </c>
-      <c r="B456" s="2">
-        <v>43770</v>
-      </c>
-      <c r="C456">
-        <v>257.208</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
-      <c r="A457" s="1">
-        <v>455</v>
-      </c>
-      <c r="B457" s="2">
-        <v>43800</v>
-      </c>
-      <c r="C457">
-        <v>256.974</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
-      <c r="A458" s="1">
-        <v>456</v>
-      </c>
-      <c r="B458" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C458">
-        <v>257.971</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
-      <c r="A459" s="1">
-        <v>457</v>
-      </c>
-      <c r="B459" s="2">
-        <v>43862</v>
-      </c>
-      <c r="C459">
-        <v>258.678</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
-      <c r="A460" s="1">
-        <v>458</v>
-      </c>
-      <c r="B460" s="2">
-        <v>43891</v>
-      </c>
-      <c r="C460">
-        <v>258.115</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
-      <c r="A461" s="1">
-        <v>459</v>
-      </c>
-      <c r="B461" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C461">
-        <v>256.389</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
-      <c r="A462" s="1">
-        <v>460</v>
-      </c>
-      <c r="B462" s="2">
-        <v>43952</v>
-      </c>
-      <c r="C462">
-        <v>256.394</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
-      <c r="A463" s="1">
-        <v>461</v>
-      </c>
-      <c r="B463" s="2">
-        <v>43983</v>
-      </c>
-      <c r="C463">
-        <v>257.797</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
-      <c r="A464" s="1">
-        <v>462</v>
-      </c>
-      <c r="B464" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C464">
-        <v>259.101</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" s="1">
-        <v>463</v>
-      </c>
-      <c r="B465" s="2">
-        <v>44044</v>
-      </c>
-      <c r="C465">
-        <v>259.918</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" s="1">
-        <v>464</v>
-      </c>
-      <c r="B466" s="2">
-        <v>44075</v>
-      </c>
-      <c r="C466">
-        <v>260.28</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="1">
-        <v>465</v>
-      </c>
-      <c r="B467" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C467">
-        <v>260.388</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="A468" s="1">
-        <v>466</v>
-      </c>
-      <c r="B468" s="2">
-        <v>44136</v>
-      </c>
-      <c r="C468">
-        <v>260.229</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="A469" s="1">
-        <v>467</v>
-      </c>
-      <c r="B469" s="2">
-        <v>44166</v>
-      </c>
-      <c r="C469">
-        <v>260.474</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="A470" s="1">
-        <v>468</v>
-      </c>
-      <c r="B470" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C470">
-        <v>261.582</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="A471" s="1">
-        <v>469</v>
-      </c>
-      <c r="B471" s="2">
-        <v>44228</v>
-      </c>
-      <c r="C471">
-        <v>263.014</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="A472" s="1">
-        <v>470</v>
-      </c>
-      <c r="B472" s="2">
-        <v>44256</v>
-      </c>
-      <c r="C472">
-        <v>264.877</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
-      <c r="A473" s="1">
-        <v>471</v>
-      </c>
-      <c r="B473" s="2">
-        <v>44287</v>
-      </c>
-      <c r="C473">
-        <v>267.054</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
-      <c r="A474" s="1">
-        <v>472</v>
-      </c>
-      <c r="B474" s="2">
-        <v>44317</v>
-      </c>
-      <c r="C474">
-        <v>269.195</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
-      <c r="A475" s="1">
-        <v>473</v>
-      </c>
-      <c r="B475" s="2">
-        <v>44348</v>
-      </c>
-      <c r="C475">
-        <v>271.696</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
-      <c r="A476" s="1">
-        <v>474</v>
-      </c>
-      <c r="B476" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C476">
-        <v>273.003</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
-      <c r="A477" s="1">
-        <v>475</v>
-      </c>
-      <c r="B477" s="2">
-        <v>44409</v>
-      </c>
-      <c r="C477">
-        <v>273.567</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
-      <c r="A478" s="1">
-        <v>476</v>
-      </c>
-      <c r="B478" s="2">
-        <v>44440</v>
-      </c>
-      <c r="C478">
-        <v>274.31</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
-      <c r="A479" s="1">
-        <v>477</v>
-      </c>
-      <c r="B479" s="2">
-        <v>44470</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="1">
-        <v>478</v>
-      </c>
-      <c r="B480" s="2">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" s="1">
-        <v>479</v>
-      </c>
-      <c r="B481" s="2">
         <v>44531</v>
       </c>
     </row>
